--- a/data/trans_media/Q17B-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q17B-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,26</t>
+          <t>1,11; 1,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,44</t>
+          <t>1,23; 1,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,69</t>
+          <t>1,31; 1,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,33</t>
+          <t>1,15; 1,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,47</t>
+          <t>1,22; 1,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,55</t>
+          <t>1,27; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,27</t>
+          <t>1,15; 1,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,55</t>
+          <t>1,31; 1,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,34</t>
+          <t>1,14; 1,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,43</t>
+          <t>1,22; 1,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,36</t>
+          <t>1,24; 1,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,3</t>
+          <t>1,17; 1,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,37</t>
+          <t>1,25; 1,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,39</t>
+          <t>1,35; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,45</t>
+          <t>1,12; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,38</t>
+          <t>1,09; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,21</t>
+          <t>1,07; 1,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,41</t>
+          <t>1,11; 1,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,42</t>
+          <t>1,13; 1,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,67</t>
+          <t>1,2; 1,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,36</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,34</t>
+          <t>1,13; 1,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,44</t>
+          <t>1,26; 1,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,27</t>
+          <t>1,17; 1,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,42</t>
+          <t>1,26; 1,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,27</t>
+          <t>1,18; 1,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,34</t>
+          <t>1,26; 1,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,39</t>
+          <t>1,28; 1,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
